--- a/excel/formatupload.xlsx
+++ b/excel/formatupload.xlsx
@@ -1,56 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apotekmama\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\argopuro\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13884AD-3614-4292-9A16-ACB9B1CDAC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Kode Item</t>
+    <t>blok</t>
   </si>
   <si>
-    <t>Nama Produk</t>
+    <t>jumlah kavling</t>
   </si>
   <si>
-    <t>Jenis</t>
-  </si>
-  <si>
-    <t>Kategori</t>
-  </si>
-  <si>
-    <t>Harga Jual</t>
-  </si>
-  <si>
-    <t>Lokasi</t>
-  </si>
-  <si>
-    <t>Satuan</t>
-  </si>
-  <si>
-    <t>Merk</t>
+    <t>luas teknik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,6 +169,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -210,6 +221,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,11 +413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +430,7 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,21 +440,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -434,7 +447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -446,7 +459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/excel/formatupload.xlsx
+++ b/excel/formatupload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\argopuro\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13884AD-3614-4292-9A16-ACB9B1CDAC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912981E6-5B37-4D27-A6F4-05EE9A8BC7B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>blok</t>
-  </si>
-  <si>
-    <t>jumlah kavling</t>
   </si>
   <si>
     <t>luas teknik</t>
@@ -414,31 +411,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
